--- a/classfiers/nano/svm/nearmiss/nano-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/nano/svm/nearmiss/nano-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.5</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.8</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7349999999999999</v>
+        <v>0.6642857142857144</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5294117647058824</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.679245283018868</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6263157894736842</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6129032258064516</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9578947368421052</v>
+        <v>0.6952380952380952</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5631578947368421</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4193720890115576</v>
+        <v>0.496103896103896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6494736842105263</v>
+        <v>0.21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5061640749187919</v>
+        <v>0.2753238181668179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7554210526315789</v>
+        <v>0.6827142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/nearmiss/nano-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/nano/svm/nearmiss/nano-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6451612903225806</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6642857142857144</v>
+        <v>0.5872576177285319</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.744186046511628</v>
       </c>
       <c r="E3" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8947368421052631</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6952380952380952</v>
+        <v>0.6537396121883656</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.435</v>
+        <v>0.5160818713450293</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.496103896103896</v>
+        <v>0.5133333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.21</v>
+        <v>0.2742690058479532</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2753238181668179</v>
+        <v>0.2940277719157557</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6827142857142857</v>
+        <v>0.6408895044629117</v>
       </c>
     </row>
   </sheetData>
